--- a/Interview-Startegy-plan.xlsx
+++ b/Interview-Startegy-plan.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="System Design" sheetId="1" r:id="rId1"/>
-    <sheet name="Java" sheetId="2" r:id="rId2"/>
-    <sheet name="spring boot" sheetId="3" r:id="rId3"/>
+    <sheet name="c-sharp" sheetId="6" r:id="rId2"/>
+    <sheet name="Microservice" sheetId="4" r:id="rId3"/>
+    <sheet name="gammVideolink" sheetId="5" r:id="rId4"/>
+    <sheet name="Java" sheetId="2" r:id="rId5"/>
+    <sheet name="spring boot" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="1484">
   <si>
     <t>Topic</t>
   </si>
@@ -4751,12 +4754,102 @@
   <si>
     <t>https://medium.com/startlovingyourself/need-of-messaging-queues-in-microservices-architecture-91de0db89120</t>
   </si>
+  <si>
+    <t>https://javarevisited.blogspot.com/2021/09/microservices-design-patterns-principles.html#axzz7jfOEjzvg</t>
+  </si>
+  <si>
+    <t>Microservice design pattern</t>
+  </si>
+  <si>
+    <t>        2. Event Sourcing</t>
+  </si>
+  <si>
+    <t>        3. CQRS</t>
+  </si>
+  <si>
+    <t>        4. Saga</t>
+  </si>
+  <si>
+    <t>        5. BFF</t>
+  </si>
+  <si>
+    <t>        6. API Gateway</t>
+  </si>
+  <si>
+    <t>        7. Strangler</t>
+  </si>
+  <si>
+    <t>        8. Circuit Breaker</t>
+  </si>
+  <si>
+    <t>        9. Externalized Configuration</t>
+  </si>
+  <si>
+    <t>        10. Consumer-Driven Contract Tracing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1. Database per Microservice</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/766157215</t>
+  </si>
+  <si>
+    <t>01112022</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/766562684</t>
+  </si>
+  <si>
+    <t>02112022</t>
+  </si>
+  <si>
+    <t>https://astikanand.github.io/techblogs/high-level-system-design/design-facebook-newsfeed</t>
+  </si>
+  <si>
+    <t>Concurrency</t>
+  </si>
+  <si>
+    <t>https://medium.com/@sawomirkowalski/c-language-concurrency-multithreading-40103c82284</t>
+  </si>
+  <si>
+    <t>https://medium.com/@sawomirkowalski</t>
+  </si>
+  <si>
+    <t>Technologies/Frameworks Used :</t>
+  </si>
+  <si>
+    <t>.Net Core , .Net WebForms/MVC/Web API,EF, Angular 6, jQuery, NUnit, Moq, Swagger,</t>
+  </si>
+  <si>
+    <t>Docker, Kubernetes, Prometheus, Grafana, Jenkins, GoCD, Nexus, JFrog, SonarQube, New Relic, Ansible, Vagrant,</t>
+  </si>
+  <si>
+    <t>Kafka, Saga, Two-phase commit, AWS EC2, EBS, S3, Elastic Load Balancer (Application Load Balancer, Target Group), Amazon Machine Images(AMI), Launch Template, Auto Scaling (Launch Configuration, Scaling Policies), Cloud Watch, Alerts, VPC- (Private &amp; Public Subnet, Elastic IP, NAT Gateway, Internet Gateway, Route Table, Subnet Association, NACL), Amazon CloudFront</t>
+  </si>
+  <si>
+    <t>Roles &amp; Responsibilities :</t>
+  </si>
+  <si>
+    <t>• Responsible for developing/managing CI/CD pipeline using Jenkins, GoCD, Docker, Kubernetes, Git, Nexus and JFrog</t>
+  </si>
+  <si>
+    <t>• Responsible for the integration of Prometheus, Grafana, Splunk, SonarQube, New Relic for the different microservices</t>
+  </si>
+  <si>
+    <t>• Active in sprint planning, estimations, and feature demonstrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Responsible for code review, writing unit tests to have better code coverage, and reducing technical debt </t>
+  </si>
+  <si>
+    <t>• Identify bottlenecks and devise solutions to mitigate and address these issues</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4922,6 +5015,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4950,7 +5055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5064,6 +5169,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5347,8 +5456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5605,9 +5714,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" ht="29">
       <c r="A46" t="s">
         <v>31</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5661,12 +5773,224 @@
     <hyperlink ref="B5" r:id="rId12"/>
     <hyperlink ref="B34" r:id="rId13"/>
     <hyperlink ref="B35" r:id="rId14"/>
+    <hyperlink ref="B46" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="56.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="29">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="E3" s="44" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="E4" s="44" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" s="44" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="44" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="44" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="44" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="44" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="44" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="44" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="48.6328125" customWidth="1"/>
+    <col min="3" max="3" width="70.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.5">
+      <c r="B3" s="42" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.5">
+      <c r="B4" s="42" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.5">
+      <c r="B5" s="42" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.5">
+      <c r="B6" s="42" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.5">
+      <c r="B7" s="42" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.5">
+      <c r="B8" s="42" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.5">
+      <c r="B9" s="42" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.5">
+      <c r="B10" s="42" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.5">
+      <c r="B11" s="42" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.5">
+      <c r="B12" s="42" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.5">
+      <c r="B13" s="42"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" location="axzz7jfOEjzvg"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="41" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="41" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B69"/>
   <sheetViews>
@@ -6061,7 +6385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R626"/>
   <sheetViews>

--- a/Interview-Startegy-plan.xlsx
+++ b/Interview-Startegy-plan.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="System Design" sheetId="1" r:id="rId1"/>
-    <sheet name="c-sharp" sheetId="6" r:id="rId2"/>
-    <sheet name="Microservice" sheetId="4" r:id="rId3"/>
-    <sheet name="gammVideolink" sheetId="5" r:id="rId4"/>
-    <sheet name="Java" sheetId="2" r:id="rId5"/>
-    <sheet name="spring boot" sheetId="3" r:id="rId6"/>
+    <sheet name="Daily Topic" sheetId="7" r:id="rId1"/>
+    <sheet name="System Design" sheetId="1" r:id="rId2"/>
+    <sheet name="c-sharp" sheetId="6" r:id="rId3"/>
+    <sheet name="Microservice" sheetId="4" r:id="rId4"/>
+    <sheet name="gammVideolink" sheetId="5" r:id="rId5"/>
+    <sheet name="Java" sheetId="2" r:id="rId6"/>
+    <sheet name="spring boot" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1518">
   <si>
     <t>Topic</t>
   </si>
@@ -4844,12 +4845,114 @@
   <si>
     <t>• Identify bottlenecks and devise solutions to mitigate and address these issues</t>
   </si>
+  <si>
+    <t>Microservices</t>
+  </si>
+  <si>
+    <t>System Design</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>c-sharp</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>CI/CD pipeline</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/cloud/blog/building-cloud-native-app-30-minutes</t>
+  </si>
+  <si>
+    <t>https://www.oreilly.com/library/view/design-patterns-for/9781492090700/ch01.html</t>
+  </si>
+  <si>
+    <t>https://medium.com/@robnogales/microservices-using-asp-net-core-dd14396ba9a4</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>https://medium.com/@robnogales/building-microservices-application-using-spring-boot-3da3769c7d41</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/773669439</t>
+  </si>
+  <si>
+    <t>Password: 21112022</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/772107207</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/771663594</t>
+  </si>
+  <si>
+    <t>16112022</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/770129139</t>
+  </si>
+  <si>
+    <t>11112022</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/769515302</t>
+  </si>
+  <si>
+    <t>10112022</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/769012582</t>
+  </si>
+  <si>
+    <t>09112022</t>
+  </si>
+  <si>
+    <t>Structs/Class/Pair</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/767760532</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>06112022</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/767546658</t>
+  </si>
+  <si>
+    <t>05112022</t>
+  </si>
+  <si>
+    <t>Vectors</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/767348817</t>
+  </si>
+  <si>
+    <t>04112022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5027,6 +5130,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5055,7 +5165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5173,6 +5283,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5454,9 +5566,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="35.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.5">
+      <c r="A2" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H2" s="45">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.5">
+      <c r="A3" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H3" s="45">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="58">
+      <c r="G4" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H4" s="45">
+        <v>44886</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -5779,11 +5976,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -5866,7 +6063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C13"/>
   <sheetViews>
@@ -5950,21 +6147,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
     <col min="2" max="2" width="28.6328125" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="1:3">
       <c r="B2" s="41" t="s">
         <v>1466</v>
       </c>
@@ -5972,25 +6170,133 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:3">
       <c r="B3" s="41" t="s">
         <v>1468</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>1469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C11" s="46">
+        <v>17112022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>1498</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="B5" r:id="rId10"/>
+    <hyperlink ref="B4" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B69"/>
   <sheetViews>
@@ -6385,7 +6691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R626"/>
   <sheetViews>

--- a/Interview-Startegy-plan.xlsx
+++ b/Interview-Startegy-plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Topic" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,11 @@
     <sheet name="gammVideolink" sheetId="5" r:id="rId5"/>
     <sheet name="Java" sheetId="2" r:id="rId6"/>
     <sheet name="spring boot" sheetId="3" r:id="rId7"/>
+    <sheet name="Dailyleetcode" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Java!$A$1:$C$81</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="1564">
   <si>
     <t>Topic</t>
   </si>
@@ -270,9 +274,6 @@
   </si>
   <si>
     <t>Dependency Injection and IOC Container</t>
-  </si>
-  <si>
-    <t> Hashmap internal implementation</t>
   </si>
   <si>
     <t>method overriding and method overloading</t>
@@ -4846,24 +4847,6 @@
     <t>• Identify bottlenecks and devise solutions to mitigate and address these issues</t>
   </si>
   <si>
-    <t>Microservices</t>
-  </si>
-  <si>
-    <t>System Design</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>c-sharp</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>coding</t>
-  </si>
-  <si>
     <t>cloud</t>
   </si>
   <si>
@@ -4946,6 +4929,165 @@
   </si>
   <si>
     <t>04112022</t>
+  </si>
+  <si>
+    <t>https://betterprogramming.pub/kafka-with-java-spring-and-docker-asynchronous-communication-between-microservices-e1d00e120831</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>microservice</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>stretegy design</t>
+  </si>
+  <si>
+    <t>design pattern</t>
+  </si>
+  <si>
+    <t>truecaller</t>
+  </si>
+  <si>
+    <t>low level design</t>
+  </si>
+  <si>
+    <t>https://www.javaguides.net/2022/07/event-driven-microservices-using-spring-boot-and-apache-kafka.html</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>https://github.com/piomin/sample-spring-kafka-microservices</t>
+  </si>
+  <si>
+    <t>https://refactoring.guru/design-patterns/observer</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/dotnet/standard/events/observer-design-pattern</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/java/technologies/java8.html</t>
+  </si>
+  <si>
+    <t>java 8</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/technical-resources/articles/java/juneau-generics.html</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/technical-resources/articles/java/ma14-java-se-8-streams.html</t>
+  </si>
+  <si>
+    <t>stream part1</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/technical-resources/articles/java/architect-streams-pt2.html</t>
+  </si>
+  <si>
+    <t>stream part2</t>
+  </si>
+  <si>
+    <t>https://medium.com/huawei-developers/database-relationships-in-spring-data-jpa-8d7181f50f60</t>
+  </si>
+  <si>
+    <t>jpa</t>
+  </si>
+  <si>
+    <t>https://initialcommit.com/blog/pass-data-from-spring-controller-to-jsp</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum-with-multiplicity/description/</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>springboot</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>J2ee</t>
+  </si>
+  <si>
+    <t>j2ee</t>
+  </si>
+  <si>
+    <t>system design</t>
+  </si>
+  <si>
+    <t>Queation</t>
+  </si>
+  <si>
+    <t>https://javarevisited.blogspot.com/2011/02/how-hashmap-works-in-java.html#axzz7ovxJEhE1 https://www.geeksforgeeks.org/load-factor-and-rehashing/</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>load factor= 0.75 , open address , linklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.javatpoint.com/java-8-features LamdaExpresso:https://docs.oracle.com/javase/tutorial/java/javaOO/lambdaexpressions.html </t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/functional-interfaces-java/</t>
+  </si>
+  <si>
+    <t>create own immutable class</t>
+  </si>
+  <si>
+    <t>multithreading</t>
+  </si>
+  <si>
+    <t>herachi of thread</t>
+  </si>
+  <si>
+    <t>life cycle of thread</t>
+  </si>
+  <si>
+    <t>sleep and wait</t>
+  </si>
+  <si>
+    <t>join in thread</t>
+  </si>
+  <si>
+    <t>garbage collection</t>
+  </si>
+  <si>
+    <t>clone method - &gt; break</t>
+  </si>
+  <si>
+    <t>serilization and deserilization - need  write and read object method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scope of bean </t>
+  </si>
+  <si>
+    <t>how mant types of scope - siglton , prototype , session , global session</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>how many ways DI</t>
+  </si>
+  <si>
+    <t>qualifier polymorism -&gt; three interface how ploymorism</t>
   </si>
 </sst>
 </file>
@@ -5165,7 +5307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5285,6 +5427,15 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5566,84 +5717,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="24.26953125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="35.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.5">
+      <c r="A2" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C2" s="45">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5">
+      <c r="A3" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C3" s="45">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="58">
+      <c r="A4" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C4" s="45">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="45">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>1484</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C6" s="45">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29">
+      <c r="A7" s="4" t="s">
         <v>1485</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C7" s="45">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.5">
+      <c r="A8" s="4" t="s">
         <v>1486</v>
       </c>
-      <c r="D1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.5">
-      <c r="A2" s="4" t="s">
-        <v>1494</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="H2" s="45">
-        <v>44886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="43.5">
-      <c r="A3" s="4" t="s">
-        <v>1496</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1492</v>
-      </c>
-      <c r="H3" s="45">
-        <v>44886</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="58">
-      <c r="G4" s="4" t="s">
-        <v>1493</v>
-      </c>
-      <c r="H4" s="45">
-        <v>44886</v>
+      <c r="B8" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C8" s="45">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C9" s="45">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29">
+      <c r="A10" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C10" s="45">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C11" s="45">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.5">
+      <c r="A12" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C12" s="45">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29">
+      <c r="A13" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C13" s="45">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.5">
+      <c r="A14" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29">
+      <c r="A16" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.5">
+      <c r="A17" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="43.5">
+      <c r="A18" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="43.5">
+      <c r="A19" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="43.5">
+      <c r="A20" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1533</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
+    <hyperlink ref="A12" r:id="rId6"/>
+    <hyperlink ref="A13" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A14" r:id="rId9"/>
+    <hyperlink ref="A16" r:id="rId10"/>
+    <hyperlink ref="A17" r:id="rId11"/>
+    <hyperlink ref="A18" r:id="rId12"/>
+    <hyperlink ref="A19" r:id="rId13"/>
+    <hyperlink ref="A20" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5706,7 +5989,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5750,22 +6033,22 @@
     </row>
     <row r="12" spans="1:12" ht="29">
       <c r="B12" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29">
       <c r="B13" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29">
       <c r="B15" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5856,12 +6139,12 @@
         <v>25</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="29">
       <c r="B35" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5916,7 +6199,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5997,61 +6280,61 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1471</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>1472</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="44" t="s">
         <v>1473</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="E3" s="44" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="E4" s="44" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="E5" s="44" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="E7" s="44" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" s="44" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="E9" s="44" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="44" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="E11" s="44" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="E12" s="44" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
   </sheetData>
@@ -6079,60 +6362,60 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.5">
       <c r="B3" s="42" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.5">
       <c r="B4" s="42" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.5">
       <c r="B5" s="42" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.5">
       <c r="B6" s="42" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.5">
       <c r="B7" s="42" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.5">
       <c r="B8" s="42" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.5">
       <c r="B9" s="42" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.5">
       <c r="B10" s="42" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.5">
       <c r="B11" s="42" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.5">
       <c r="B12" s="42" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.5">
@@ -6151,7 +6434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -6164,84 +6447,84 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="B2" s="41" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>1466</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="41" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>1468</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1511</v>
+        <v>1504</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6249,10 +6532,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6260,7 +6543,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="C11" s="46">
         <v>17112022</v>
@@ -6271,10 +6554,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
     </row>
   </sheetData>
@@ -6298,396 +6581,832 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B69"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="48.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.08984375" customWidth="1"/>
+    <col min="2" max="2" width="54.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5">
-      <c r="B1" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="23">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23" hidden="1">
       <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5">
       <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="23">
+      <c r="B3" s="49" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="23" hidden="1">
       <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="23">
+      <c r="B4" s="5"/>
+      <c r="C4" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23" hidden="1">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.5">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="34.5">
+      <c r="B6" s="48" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34.5" hidden="1">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="48" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29">
+      <c r="A10" s="5"/>
+      <c r="B10" s="48" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1">
+      <c r="A12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="23" hidden="1">
+      <c r="A13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="23" hidden="1">
+      <c r="A14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="23" hidden="1">
+      <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1">
+      <c r="A18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1">
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="46" hidden="1">
+      <c r="A21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1">
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1">
+      <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23" hidden="1">
+      <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1">
+      <c r="A29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1">
+      <c r="A30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1">
+      <c r="A34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="29">
+      <c r="A35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1">
+      <c r="A36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1">
+      <c r="A37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="23" hidden="1">
+      <c r="A38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="29" hidden="1">
+      <c r="A39" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1">
+      <c r="A41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="23" hidden="1">
+      <c r="A42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="23">
+      <c r="A44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="23">
+      <c r="A45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1">
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1">
+      <c r="A47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="46" hidden="1">
+      <c r="A49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1">
+      <c r="A50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1">
+      <c r="A58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1">
+      <c r="A59" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1">
+      <c r="A60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1">
+      <c r="A61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1">
+      <c r="A62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1">
+      <c r="A63" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1">
+      <c r="A64" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1">
+      <c r="A65" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1">
+      <c r="A66" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1">
+      <c r="A67" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1">
+      <c r="A68" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1">
+      <c r="A69" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1">
+      <c r="A70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.5" hidden="1">
+      <c r="A71" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C79" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="23">
-      <c r="A11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="23">
-      <c r="A12" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="23">
-      <c r="A14" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="46">
-      <c r="A19" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="23">
-      <c r="A22" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="29">
-      <c r="A34" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="23">
-      <c r="A37" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="23">
-      <c r="A38" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="23">
-      <c r="A41" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="23">
-      <c r="A43" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="23">
-      <c r="A44" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="46">
-      <c r="A48" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="5" t="s">
-        <v>118</v>
+      <c r="C80" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="20" hidden="1">
+      <c r="A81" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="3" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="3" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="3" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="3" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="3" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="3" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="29">
+      <c r="A90" s="3" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="29">
+      <c r="A93" s="3" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>1563</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C81">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Java"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B39" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2" location="axzz7ovxJEhE1 " display="https://javarevisited.blogspot.com/2011/02/how-hashmap-works-in-java.html#axzz7ovxJEhE1 "/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -6695,7 +7414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R626"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -6721,28 +7440,28 @@
   <sheetData>
     <row r="1" spans="1:18" ht="35">
       <c r="A1" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -6755,28 +7474,28 @@
     </row>
     <row r="3" spans="1:18" ht="409.5">
       <c r="A3" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6789,35 +7508,35 @@
     </row>
     <row r="5" spans="1:18" ht="232.5">
       <c r="A5" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="62">
       <c r="A6" s="38"/>
       <c r="D6" s="9"/>
       <c r="G6" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I6" s="9"/>
       <c r="M6" s="9"/>
@@ -6826,37 +7545,37 @@
     </row>
     <row r="7" spans="1:18" ht="124">
       <c r="A7" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="46.5">
       <c r="A8" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="11"/>
       <c r="G8" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I8" s="9"/>
       <c r="K8" s="17"/>
@@ -6866,376 +7585,376 @@
     </row>
     <row r="9" spans="1:18" ht="170.5">
       <c r="D9" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="77.5">
       <c r="A10" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="9"/>
       <c r="G10" s="23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I10" s="9"/>
       <c r="K10" s="25" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="M10" s="9"/>
       <c r="P10" s="23" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:18" ht="46.5">
       <c r="D11" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="P11" s="9"/>
       <c r="R11" s="27" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="46.5">
       <c r="A12" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="11"/>
       <c r="G12" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I12" s="9"/>
       <c r="K12" s="32" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="M12" s="9"/>
       <c r="P12" s="29" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="341">
       <c r="A13" s="38"/>
       <c r="D13" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K13" s="17"/>
       <c r="M13" s="10" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P13" s="11"/>
       <c r="R13" s="27" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="62">
       <c r="A14" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G14" s="9"/>
       <c r="I14" s="9"/>
       <c r="K14" s="25" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M14" s="11"/>
       <c r="P14" s="23" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="R14" s="27" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="46.5">
       <c r="A15" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="62">
       <c r="A16" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="9"/>
       <c r="K16" s="25" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="R16" s="27" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="108.5">
       <c r="A17" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="93">
       <c r="A18" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G18" s="9"/>
       <c r="I18" s="9"/>
       <c r="K18" s="25" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="R18" s="9"/>
     </row>
     <row r="19" spans="1:18" ht="77.5">
       <c r="A19" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="35">
       <c r="A20" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="9"/>
       <c r="K20" s="25" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:18" ht="46.5">
       <c r="A21" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="9"/>
       <c r="G21" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>1</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="P21" s="9"/>
       <c r="R21" s="23" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="36">
       <c r="A22" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I22" s="11"/>
       <c r="K22" s="32" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="R22" s="9"/>
     </row>
     <row r="23" spans="1:18" ht="31">
       <c r="A23" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="11"/>
       <c r="G23" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K23" s="17"/>
       <c r="M23" s="9"/>
       <c r="P23" s="11"/>
       <c r="R23" s="36" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="46.5">
       <c r="A24" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G24" s="9"/>
       <c r="I24" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="R24" s="9"/>
     </row>
     <row r="25" spans="1:18" ht="46.5">
       <c r="D25" s="9"/>
       <c r="G25" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="M25" s="11"/>
       <c r="P25" s="23" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="R25" s="21" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="46.5">
       <c r="A26" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G26" s="9"/>
       <c r="I26" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P26" s="9"/>
       <c r="R26" s="9"/>
@@ -7244,89 +7963,89 @@
       <c r="A27" s="38"/>
       <c r="D27" s="9"/>
       <c r="G27" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="M27" s="9"/>
       <c r="P27" s="29" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="R27" s="31" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="46.5">
       <c r="A28" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G28" s="11"/>
       <c r="I28" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="P28" s="9"/>
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:18" ht="46.5">
       <c r="A29" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="11"/>
       <c r="G29" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I29" s="9"/>
       <c r="K29" s="32" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="M29" s="9"/>
       <c r="P29" s="29" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="R29" s="23" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="46.5">
       <c r="A30" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="P30" s="9"/>
       <c r="R30" s="23" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="46.5">
       <c r="A31" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I31" s="11"/>
       <c r="K31" s="32" t="s">
@@ -7337,264 +8056,264 @@
         <v>1</v>
       </c>
       <c r="R31" s="23" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="31">
       <c r="A32" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="P32" s="9"/>
       <c r="R32" s="9"/>
     </row>
     <row r="33" spans="1:18" ht="36">
       <c r="A33" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="P33" s="29" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="R33" s="31" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="46.5">
       <c r="D34" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P34" s="9"/>
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" ht="62">
       <c r="A35" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="P35" s="29" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="R35" s="23" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="46.5">
       <c r="A36" s="38"/>
       <c r="D36" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K36" s="17"/>
       <c r="M36" s="13" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="P36" s="11"/>
       <c r="R36" s="23" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="46.5">
       <c r="A37" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I37" s="9"/>
       <c r="K37" s="25" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="P37" s="23" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="31">
       <c r="A38" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" s="9"/>
       <c r="G38" s="23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="R38" s="23" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="31">
       <c r="A39" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I39" s="11"/>
       <c r="K39" s="25" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="M39" s="9"/>
       <c r="P39" s="23" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="R39" s="23" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="108.5">
       <c r="A40" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" s="11"/>
       <c r="G40" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="R40" s="23" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="31">
       <c r="A41" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="P41" s="9"/>
       <c r="R41" s="23" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="31">
       <c r="D42" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="M42" s="11"/>
       <c r="P42" s="29" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="R42" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="46.5">
       <c r="A43" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M43" s="13" t="s">
         <v>1</v>
@@ -7605,596 +8324,596 @@
     <row r="44" spans="1:18" ht="77.5">
       <c r="A44" s="38"/>
       <c r="D44" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K44" s="33"/>
       <c r="M44" s="13" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="P44" s="30"/>
       <c r="R44" s="31" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="46.5">
       <c r="A45" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="P45" s="29" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:18" ht="31">
       <c r="A46" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P46" s="9"/>
       <c r="R46" s="23" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="31">
       <c r="D47" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K47" s="33"/>
       <c r="M47" s="13" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="P47" s="30"/>
       <c r="R47" s="23" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="46.5">
       <c r="A48" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="P48" s="29" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="R48" s="23" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="108.5">
       <c r="A49" s="38"/>
       <c r="D49" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="P49" s="9"/>
       <c r="R49" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="46.5">
       <c r="A50" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I50" s="9"/>
       <c r="K50" s="33"/>
       <c r="M50" s="13" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="P50" s="30"/>
       <c r="R50" s="9"/>
     </row>
     <row r="51" spans="1:18" ht="36">
       <c r="A51" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="P51" s="29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R51" s="31" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="46.5">
       <c r="A52" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I52" s="11"/>
       <c r="M52" s="13" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="P52" s="9"/>
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" ht="31">
       <c r="A53" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K53" s="33"/>
       <c r="M53" s="13" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="P53" s="30"/>
       <c r="R53" s="23" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="46.5">
       <c r="A54" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G54" s="9"/>
       <c r="I54" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="R54" s="23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K55" s="17"/>
       <c r="M55" s="13" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="P55" s="11"/>
       <c r="R55" s="23" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="46.5">
       <c r="D56" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G56" s="11"/>
       <c r="I56" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K56" s="25" t="s">
         <v>19</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="P56" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R56" s="23" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="31">
       <c r="A57" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K57" s="25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="M57" s="9"/>
       <c r="P57" s="23" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="R57" s="23" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="46.5">
       <c r="A58" s="38"/>
       <c r="D58" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K58" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="P58" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R58" s="23" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="31">
       <c r="A59" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K59" s="25" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="M59" s="11"/>
       <c r="P59" s="23" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="R59" s="23" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="31">
       <c r="A60" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="P60" s="9"/>
       <c r="R60" s="23" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="62">
       <c r="A61" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="P61" s="29" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="R61" s="23" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="31">
       <c r="D62" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K62" s="17"/>
       <c r="M62" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="P62" s="11"/>
       <c r="R62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="31">
       <c r="A63" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="P63" s="23" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="R63" s="31" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="31">
       <c r="A64" s="38"/>
       <c r="D64" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K64" s="25" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="P64" s="23" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="R64" s="11"/>
     </row>
     <row r="65" spans="1:18" ht="46.5">
       <c r="A65" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I65" s="9"/>
       <c r="K65" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="P65" s="23" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="R65" s="23" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="31">
       <c r="A66" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="P66" s="9"/>
       <c r="R66" s="23" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="46.5">
       <c r="A67" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I67" s="11"/>
       <c r="K67" s="32" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="M67" s="9"/>
       <c r="P67" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R67" s="23" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="68" spans="1:18">
       <c r="D68" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K68" s="17"/>
       <c r="M68" s="12" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="P68" s="11"/>
       <c r="R68" s="23" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="31">
       <c r="A69" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K69" s="25" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="M69" s="11"/>
       <c r="P69" s="23" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="R69" s="9"/>
     </row>
     <row r="70" spans="1:18" ht="31">
       <c r="A70" s="38"/>
       <c r="D70" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="P70" s="23" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="R70" s="31" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -8202,146 +8921,146 @@
         <v>1</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="P71" s="23" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="R71" s="11"/>
     </row>
     <row r="72" spans="1:18" ht="31">
       <c r="A72" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="P72" s="23" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="R72" s="23" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I73" s="9"/>
       <c r="M73" s="9"/>
       <c r="P73" s="9"/>
       <c r="R73" s="23" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K74" s="32" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="P74" s="29" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R74" s="23" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I75" s="11"/>
       <c r="M75" s="11"/>
       <c r="P75" s="9"/>
       <c r="R75" s="23" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="31">
       <c r="D76" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K76" s="33"/>
       <c r="M76" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="P76" s="30"/>
       <c r="R76" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="31">
       <c r="A77" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="P77" s="29" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="R77" s="9"/>
     </row>
     <row r="78" spans="1:18" ht="31">
       <c r="A78" s="38"/>
       <c r="D78" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I78" s="9"/>
       <c r="K78" s="17"/>
       <c r="M78" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="P78" s="11"/>
       <c r="R78" s="31" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="31">
@@ -8349,151 +9068,151 @@
         <v>1</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K79" s="25" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="P79" s="23" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="R79" s="11"/>
     </row>
     <row r="80" spans="1:18" ht="31">
       <c r="A80" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I80" s="11"/>
       <c r="K80" s="25" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="M80" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="P80" s="23" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="R80" s="23" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="46.5">
       <c r="A81" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K81" s="25" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="M81" s="13" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="P81" s="23" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R81" s="23" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="77.5">
       <c r="A82" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K82" s="25" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="M82" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="P82" s="23" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="R82" s="23" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="31">
       <c r="D83" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K83" s="25" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="P83" s="23" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="R83" s="23" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="46.5">
       <c r="A84" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K84" s="25" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="P84" s="23" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="R84" s="23" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="31">
       <c r="A85" s="38"/>
       <c r="D85" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K85" s="25" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="M85" s="23" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="P85" s="23" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="R85" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="31">
@@ -8501,116 +9220,116 @@
         <v>1</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K86" s="25" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="P86" s="23" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R86" s="23" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="46.5">
       <c r="A87" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K87" s="25" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="P87" s="23" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="R87" s="23" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K88" s="25" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="P88" s="23" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="R88" s="23" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="31">
       <c r="A89" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I89" s="9"/>
       <c r="M89" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="P89" s="9"/>
       <c r="R89" s="23" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="46.5">
       <c r="D90" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K90" s="32" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="P90" s="29" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="R90" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="31">
       <c r="A91" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I91" s="11"/>
       <c r="M91" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="P91" s="9"/>
       <c r="R91" s="9"/>
@@ -8618,233 +9337,233 @@
     <row r="92" spans="1:18" ht="31">
       <c r="A92" s="38"/>
       <c r="D92" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K92" s="33"/>
       <c r="M92" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="P92" s="30"/>
       <c r="R92" s="31" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="P93" s="29" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="R93" s="11"/>
     </row>
     <row r="94" spans="1:18" ht="46.5">
       <c r="A94" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="P94" s="9"/>
       <c r="R94" s="23" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="35.5">
       <c r="A95" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K95" s="33"/>
       <c r="M95" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="P95" s="30"/>
       <c r="R95" s="23" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="46.5">
       <c r="D96" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K96" s="32" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="P96" s="29" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="R96" s="23" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="62">
       <c r="A97" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M97" s="9"/>
       <c r="P97" s="9"/>
       <c r="R97" s="23" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="31">
       <c r="A98" s="38"/>
       <c r="D98" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K98" s="33"/>
       <c r="M98" s="12" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="P98" s="30"/>
       <c r="R98" s="23" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="31">
       <c r="A99" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I99" s="9"/>
       <c r="K99" s="32" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="M99" s="11"/>
       <c r="P99" s="29" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="R99" s="9"/>
     </row>
     <row r="100" spans="1:18" ht="31">
       <c r="A100" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="P100" s="9"/>
       <c r="R100" s="21" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="46.5">
       <c r="A101" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I101" s="11"/>
       <c r="K101" s="33"/>
       <c r="M101" s="13" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="P101" s="30"/>
       <c r="R101" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="31">
       <c r="A102" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K102" s="32" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="P102" s="29" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="R102" s="31" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="31">
       <c r="A103" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M103" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="P103" s="9"/>
       <c r="R103" s="11"/>
     </row>
     <row r="104" spans="1:18" ht="46.5">
       <c r="A104" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K104" s="33"/>
       <c r="M104" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P104" s="30"/>
       <c r="R104" s="23" t="s">
@@ -8853,108 +9572,108 @@
     </row>
     <row r="105" spans="1:18" ht="31">
       <c r="A105" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K105" s="32" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="M105" s="9"/>
       <c r="P105" s="29" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R105" s="23" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="62">
       <c r="A106" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K106" s="17"/>
       <c r="M106" s="12" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="P106" s="11"/>
       <c r="R106" s="23" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="31">
       <c r="A107" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D107" s="9"/>
       <c r="I107" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K107" s="25" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="M107" s="11"/>
       <c r="P107" s="23" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="R107" s="9"/>
     </row>
     <row r="108" spans="1:18" ht="77.5">
       <c r="D108" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K108" s="25" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="M108" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="P108" s="23" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="R108" s="31" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="31">
       <c r="A109" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D109" s="11"/>
       <c r="I109" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K109" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="M109" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="P109" s="23" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="R109" s="11"/>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="38"/>
       <c r="D110" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I110" s="9"/>
       <c r="M110" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="P110" s="9"/>
       <c r="R110" s="23" t="s">
@@ -8963,188 +9682,188 @@
     </row>
     <row r="111" spans="1:18" ht="31">
       <c r="A111" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I111" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K111" s="32" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="M111" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="P111" s="29" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="R111" s="23" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="31">
       <c r="A112" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I112" s="11"/>
       <c r="M112" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="P112" s="9"/>
       <c r="R112" s="23" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="31">
       <c r="A113" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K113" s="33"/>
       <c r="M113" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="P113" s="30"/>
       <c r="R113" s="23" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="31">
       <c r="A114" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K114" s="32" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="M114" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="P114" s="29" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="R114" s="23" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="115" spans="1:18" ht="31">
       <c r="A115" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="P115" s="9"/>
       <c r="R115" s="23" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="31">
       <c r="A116" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K116" s="33"/>
       <c r="M116" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="P116" s="30"/>
       <c r="R116" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="31">
       <c r="A117" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D117" s="9"/>
       <c r="I117" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K117" s="32" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="M117" s="9"/>
       <c r="P117" s="29" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="R117" s="9"/>
     </row>
     <row r="118" spans="1:18" ht="62">
       <c r="D118" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K118" s="17"/>
       <c r="M118" s="12" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="P118" s="11"/>
       <c r="R118" s="31" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D119" s="11"/>
       <c r="I119" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K119" s="25" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="M119" s="11"/>
       <c r="P119" s="23" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="R119" s="11"/>
     </row>
     <row r="120" spans="1:18" ht="77.5">
       <c r="A120" s="38"/>
       <c r="D120" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K120" s="25" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="M120" s="13" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="P120" s="23" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="R120" s="23" t="s">
         <v>1</v>
@@ -9152,93 +9871,93 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K121" s="25" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="M121" s="9"/>
       <c r="P121" s="23" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="R121" s="23" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="77.5">
       <c r="A122" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K122" s="25" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="M122" s="12" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="P122" s="23" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="R122" s="23" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="31">
       <c r="A123" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D123" s="9"/>
       <c r="I123" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K123" s="25" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M123" s="9"/>
       <c r="P123" s="23" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="R123" s="23" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="46.5">
       <c r="A124" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K124" s="25" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="M124" s="12" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="P124" s="23" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="R124" s="23" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D125" s="11"/>
       <c r="I125" s="9"/>
@@ -9248,33 +9967,33 @@
     </row>
     <row r="126" spans="1:18" ht="31">
       <c r="A126" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K126" s="32" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="M126" s="12" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="P126" s="29" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="R126" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I127" s="11"/>
       <c r="K127" s="17"/>
@@ -9284,22 +10003,22 @@
     </row>
     <row r="128" spans="1:18" ht="46.5">
       <c r="A128" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K128" s="25" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="M128" s="12" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="P128" s="23" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="R128" s="23" t="s">
         <v>1</v>
@@ -9307,164 +10026,164 @@
     </row>
     <row r="129" spans="1:18" ht="31">
       <c r="A129" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K129" s="25" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="M129" s="11"/>
       <c r="P129" s="23" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="R129" s="23" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="130" spans="1:18" ht="46.5">
       <c r="A130" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K130" s="25" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="M130" s="13" t="s">
         <v>1</v>
       </c>
       <c r="P130" s="23" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="R130" s="23" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="131" spans="1:18" ht="46.5">
       <c r="D131" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K131" s="25" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M131" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="P131" s="23" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="R131" s="23" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="31">
       <c r="A132" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I132" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K132" s="25" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="M132" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="P132" s="23" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="R132" s="23" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="46.5">
       <c r="A133" s="38"/>
       <c r="D133" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I133" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K133" s="25" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="M133" s="13" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="P133" s="23" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="R133" s="9"/>
     </row>
     <row r="134" spans="1:18" ht="46.5">
       <c r="A134" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K134" s="25" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="M134" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="P134" s="23" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="R134" s="31" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="135" spans="1:18" ht="31">
       <c r="A135" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M135" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="P135" s="9"/>
       <c r="R135" s="11"/>
     </row>
     <row r="136" spans="1:18" ht="31">
       <c r="A136" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K136" s="32" t="s">
         <v>8</v>
       </c>
       <c r="M136" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="P136" s="29" t="s">
         <v>8</v>
@@ -9475,89 +10194,89 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D137" s="9"/>
       <c r="I137" s="9"/>
       <c r="K137" s="17"/>
       <c r="M137" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="P137" s="11"/>
       <c r="R137" s="23" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="46.5">
       <c r="A138" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I138" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K138" s="25" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="M138" s="13" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="P138" s="23" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="R138" s="23" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="52.5">
       <c r="A139" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D139" s="11"/>
       <c r="I139" s="11"/>
       <c r="K139" s="25" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="M139" s="9"/>
       <c r="P139" s="23" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="R139" s="9"/>
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D140" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K140" s="25" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="M140" s="12" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="P140" s="23" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="R140" s="31" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M141" s="11"/>
       <c r="P141" s="9"/>
@@ -9565,22 +10284,22 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K142" s="32" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="M142" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="P142" s="29" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="R142" s="23" t="s">
         <v>1</v>
@@ -9588,169 +10307,169 @@
     </row>
     <row r="143" spans="1:18" ht="62">
       <c r="D143" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K143" s="17"/>
       <c r="M143" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="P143" s="11"/>
       <c r="R143" s="23" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="31">
       <c r="A144" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K144" s="25" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="M144" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="P144" s="23" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="R144" s="23" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="31">
       <c r="A145" s="38"/>
       <c r="D145" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K145" s="25" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="M145" s="13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="P145" s="23" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="R145" s="23" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="35">
       <c r="A146" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K146" s="25" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="M146" s="9"/>
       <c r="P146" s="23" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="R146" s="23" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="46.5">
       <c r="A147" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M147" s="12" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="P147" s="9"/>
       <c r="R147" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="36">
       <c r="A148" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I148" s="9"/>
       <c r="K148" s="32" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="M148" s="9"/>
       <c r="P148" s="29" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R148" s="9"/>
     </row>
     <row r="149" spans="1:18" ht="35">
       <c r="A149" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K149" s="17"/>
       <c r="M149" s="30"/>
       <c r="P149" s="11"/>
       <c r="R149" s="31" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="46.5">
       <c r="A150" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I150" s="11"/>
       <c r="K150" s="25" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="M150" s="12" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="P150" s="23" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="R150" s="11"/>
     </row>
     <row r="151" spans="1:18" ht="35">
       <c r="D151" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K151" s="25" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="M151" s="11"/>
       <c r="P151" s="23" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="R151" s="23" t="s">
         <v>1</v>
@@ -9758,41 +10477,41 @@
     </row>
     <row r="152" spans="1:18" ht="46.5">
       <c r="A152" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K152" s="25" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="M152" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="P152" s="23" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="R152" s="23" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="77.5">
       <c r="A153" s="38"/>
       <c r="D153" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M153" s="13" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="P153" s="9"/>
       <c r="R153" s="23" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="62">
@@ -9800,92 +10519,92 @@
         <v>1</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K154" s="34" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="M154" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="P154" s="31" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="R154" s="23" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="62">
       <c r="A155" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M155" s="13" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="P155" s="9"/>
       <c r="R155" s="9"/>
     </row>
     <row r="156" spans="1:18" ht="46.5">
       <c r="A156" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K156" s="34" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="M156" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="P156" s="31" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R156" s="31" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="157" spans="1:18" ht="46.5">
       <c r="D157" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I157" s="9"/>
       <c r="M157" s="13" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="P157" s="9"/>
       <c r="R157" s="11"/>
     </row>
     <row r="158" spans="1:18" ht="46.5">
       <c r="A158" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K158" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="M158" s="13" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="P158" s="31" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="R158" s="23" t="s">
         <v>1</v>
@@ -9896,11 +10615,11 @@
       <c r="D159" s="9"/>
       <c r="I159" s="11"/>
       <c r="M159" s="13" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="P159" s="9"/>
       <c r="R159" s="23" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="160" spans="1:18" ht="62">
@@ -9908,60 +10627,60 @@
         <v>1</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I160" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K160" s="34" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="M160" s="9"/>
       <c r="P160" s="31" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="R160" s="23" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="161" spans="1:18" ht="31">
       <c r="A161" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D161" s="11"/>
       <c r="I161" s="13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M161" s="12" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="P161" s="9"/>
       <c r="R161" s="9"/>
     </row>
     <row r="162" spans="1:18" ht="46.5">
       <c r="A162" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D162" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K162" s="32" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M162" s="9"/>
       <c r="P162" s="29" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R162" s="31" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="163" spans="1:18">
       <c r="D163" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I163" s="9"/>
       <c r="M163" s="30"/>
@@ -9970,22 +10689,22 @@
     </row>
     <row r="164" spans="1:18" ht="46.5">
       <c r="A164" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K164" s="32" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="M164" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="P164" s="29" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="R164" s="23" t="s">
         <v>1</v>
@@ -9994,13 +10713,13 @@
     <row r="165" spans="1:18">
       <c r="A165" s="38"/>
       <c r="D165" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I165" s="11"/>
       <c r="M165" s="11"/>
       <c r="P165" s="9"/>
       <c r="R165" s="23" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="46.5">
@@ -10008,391 +10727,391 @@
         <v>1</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K166" s="32" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="M166" s="13" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="P166" s="29" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="R166" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="31">
       <c r="A167" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M167" s="13" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="R167" s="9"/>
     </row>
     <row r="168" spans="1:18" ht="46.5">
       <c r="A168" s="40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M168" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="R168" s="31" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="169" spans="1:18" ht="46.5">
       <c r="A169" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M169" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="R169" s="11"/>
     </row>
     <row r="170" spans="1:18" ht="46.5">
       <c r="D170" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M170" s="13" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="R170" s="23" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="31">
       <c r="A171" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M171" s="13" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="R171" s="23" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="31">
       <c r="A172" s="38"/>
       <c r="D172" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M172" s="13" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="R172" s="23" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="173" spans="1:18">
       <c r="A173" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I173" s="9"/>
       <c r="M173" s="9"/>
     </row>
     <row r="174" spans="1:18">
       <c r="A174" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M174" s="12" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="175" spans="1:18">
       <c r="D175" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I175" s="11"/>
       <c r="M175" s="11"/>
     </row>
     <row r="176" spans="1:18" ht="31">
       <c r="A176" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M176" s="13" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="31">
       <c r="A177" s="38"/>
       <c r="D177" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I177" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M177" s="13" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="31">
       <c r="A178" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M178" s="13" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D179" s="9"/>
       <c r="I179" s="13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M179" s="13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="31">
       <c r="A180" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M180" s="13" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="D181" s="11"/>
       <c r="I181" s="13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M181" s="13" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="31">
       <c r="A182" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M182" s="13" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="31">
       <c r="A183" s="38"/>
       <c r="D183" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I183" s="9"/>
       <c r="M183" s="9"/>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M184" s="12" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I185" s="11"/>
       <c r="M185" s="11"/>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I186" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M186" s="13" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="31">
       <c r="D187" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I187" s="13" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M187" s="13" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="31">
       <c r="A188" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I188" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="31">
       <c r="A189" s="38"/>
       <c r="D189" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I189" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="31">
       <c r="A192" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I192" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="31">
       <c r="A193" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I193" s="9"/>
     </row>
     <row r="194" spans="1:9" ht="31">
       <c r="A194" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="31">
       <c r="D195" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I195" s="11"/>
     </row>
     <row r="196" spans="1:9" ht="31">
       <c r="A196" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I196" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="31">
       <c r="A197" s="38"/>
       <c r="D197" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I197" s="13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="31">
@@ -10400,281 +11119,281 @@
         <v>1</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I198" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="31">
       <c r="A199" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I199" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="31">
       <c r="D200" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I200" s="13" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="62">
       <c r="A201" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I201" s="9"/>
     </row>
     <row r="202" spans="1:9" ht="31">
       <c r="A202" s="38"/>
       <c r="D202" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I202" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="31">
       <c r="A203" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I203" s="11"/>
     </row>
     <row r="204" spans="1:9" ht="31">
       <c r="A204" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D204" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I204" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="62">
       <c r="A205" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D206" s="9"/>
       <c r="I206" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="35">
       <c r="A207" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I207" s="13" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="31">
       <c r="D208" s="11"/>
       <c r="I208" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="209" spans="4:9">
       <c r="D209" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I209" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="210" spans="4:9" ht="31">
       <c r="D210" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I210" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="211" spans="4:9">
       <c r="D211" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I211" s="9"/>
     </row>
     <row r="212" spans="4:9" ht="31">
       <c r="D212" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I212" s="12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="213" spans="4:9" ht="31">
       <c r="D213" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I213" s="11"/>
     </row>
     <row r="214" spans="4:9">
       <c r="D214" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I214" s="13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="215" spans="4:9" ht="31">
       <c r="D215" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I215" s="13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="216" spans="4:9">
       <c r="D216" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I216" s="9"/>
     </row>
     <row r="217" spans="4:9">
       <c r="D217" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="218" spans="4:9">
       <c r="D218" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I218" s="9"/>
     </row>
     <row r="219" spans="4:9">
       <c r="D219" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I219" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="220" spans="4:9">
       <c r="D220" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I220" s="11"/>
     </row>
     <row r="221" spans="4:9">
       <c r="D221" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I221" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="222" spans="4:9" ht="31">
       <c r="D222" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I222" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="223" spans="4:9" ht="31">
       <c r="D223" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I223" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="224" spans="4:9">
       <c r="D224" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I224" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="225" spans="4:9">
       <c r="D225" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I225" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="226" spans="4:9" ht="31">
       <c r="D226" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I226" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="227" spans="4:9" ht="31">
       <c r="D227" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I227" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="228" spans="4:9" ht="31">
       <c r="D228" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I228" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="229" spans="4:9">
       <c r="D229" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I229" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="230" spans="4:9" ht="31">
       <c r="D230" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I230" s="13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="231" spans="4:9">
       <c r="D231" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I231" s="9"/>
     </row>
     <row r="232" spans="4:9">
       <c r="D232" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I232" s="12" t="s">
         <v>1</v>
@@ -10682,432 +11401,432 @@
     </row>
     <row r="233" spans="4:9" ht="31">
       <c r="D233" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I233" s="11"/>
     </row>
     <row r="234" spans="4:9" ht="31">
       <c r="D234" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I234" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="235" spans="4:9" ht="31">
       <c r="D235" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I235" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="236" spans="4:9">
       <c r="D236" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I236" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="237" spans="4:9" ht="31">
       <c r="D237" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I237" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="238" spans="4:9" ht="46.5">
       <c r="D238" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I238" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="239" spans="4:9">
       <c r="D239" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I239" s="9"/>
     </row>
     <row r="240" spans="4:9">
       <c r="D240" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I240" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="241" spans="4:9">
       <c r="D241" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I241" s="11"/>
     </row>
     <row r="242" spans="4:9">
       <c r="D242" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I242" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="243" spans="4:9">
       <c r="D243" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I243" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="244" spans="4:9">
       <c r="D244" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I244" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="245" spans="4:9" ht="31">
       <c r="D245" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I245" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="246" spans="4:9" ht="31">
       <c r="D246" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I246" s="9"/>
     </row>
     <row r="247" spans="4:9">
       <c r="D247" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I247" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="248" spans="4:9">
       <c r="D248" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I248" s="11"/>
     </row>
     <row r="249" spans="4:9">
       <c r="D249" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I249" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="250" spans="4:9" ht="31">
       <c r="D250" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I250" s="13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="251" spans="4:9">
       <c r="D251" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I251" s="9"/>
     </row>
     <row r="252" spans="4:9">
       <c r="D252" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I252" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="253" spans="4:9">
       <c r="D253" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I253" s="11"/>
     </row>
     <row r="254" spans="4:9">
       <c r="D254" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I254" s="13" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="255" spans="4:9" ht="31">
       <c r="D255" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I255" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="256" spans="4:9" ht="31">
       <c r="D256" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I256" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="257" spans="4:9">
       <c r="D257" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I257" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="258" spans="4:9" ht="31">
       <c r="D258" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I258" s="13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="259" spans="4:9" ht="31">
       <c r="D259" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I259" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="260" spans="4:9">
       <c r="D260" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I260" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="261" spans="4:9">
       <c r="D261" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I261" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="262" spans="4:9" ht="31">
       <c r="D262" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I262" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="263" spans="4:9" ht="31">
       <c r="D263" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I263" s="13" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="264" spans="4:9" ht="31">
       <c r="D264" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I264" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="265" spans="4:9">
       <c r="D265" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I265" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="266" spans="4:9">
       <c r="D266" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I266" s="9"/>
     </row>
     <row r="267" spans="4:9" ht="46.5">
       <c r="D267" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I267" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="268" spans="4:9">
       <c r="D268" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I268" s="11"/>
     </row>
     <row r="269" spans="4:9" ht="31">
       <c r="D269" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I269" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="270" spans="4:9">
       <c r="D270" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I270" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="271" spans="4:9">
       <c r="D271" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I271" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="272" spans="4:9" ht="46.5">
       <c r="D272" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I272" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="273" spans="4:9" ht="31">
       <c r="D273" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I273" s="9"/>
     </row>
     <row r="274" spans="4:9">
       <c r="D274" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I274" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="275" spans="4:9">
       <c r="D275" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I275" s="11"/>
     </row>
     <row r="276" spans="4:9">
       <c r="D276" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I276" s="13" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="277" spans="4:9">
       <c r="D277" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I277" s="13" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="278" spans="4:9" ht="31">
       <c r="D278" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I278" s="13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="279" spans="4:9">
       <c r="D279" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I279" s="9"/>
     </row>
     <row r="280" spans="4:9">
       <c r="D280" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I280" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="281" spans="4:9" ht="31">
       <c r="D281" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I281" s="11"/>
     </row>
     <row r="282" spans="4:9">
       <c r="D282" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I282" s="13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="283" spans="4:9">
       <c r="D283" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I283" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="284" spans="4:9" ht="31">
       <c r="D284" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I284" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="285" spans="4:9" ht="31">
       <c r="D285" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I285" s="9"/>
     </row>
     <row r="286" spans="4:9" ht="46.5">
       <c r="D286" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I286" s="12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="287" spans="4:9">
       <c r="D287" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I287" s="11"/>
     </row>
     <row r="288" spans="4:9">
       <c r="D288" s="9"/>
       <c r="I288" s="13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="289" spans="4:9">
       <c r="D289" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I289" s="13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="290" spans="4:9">
       <c r="D290" s="11"/>
       <c r="I290" s="13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="291" spans="4:9" ht="31">
@@ -11115,337 +11834,337 @@
         <v>1</v>
       </c>
       <c r="I291" s="13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="292" spans="4:9" ht="31">
       <c r="D292" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I292" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="293" spans="4:9" ht="31">
       <c r="D293" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I293" s="9"/>
     </row>
     <row r="294" spans="4:9">
       <c r="D294" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I294" s="12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="295" spans="4:9">
       <c r="D295" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I295" s="11"/>
     </row>
     <row r="296" spans="4:9">
       <c r="D296" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I296" s="13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="297" spans="4:9">
       <c r="D297" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I297" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="298" spans="4:9" ht="31">
       <c r="D298" s="19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I298" s="13" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="299" spans="4:9">
       <c r="D299" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I299" s="9"/>
     </row>
     <row r="300" spans="4:9">
       <c r="D300" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I300" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="301" spans="4:9" ht="31">
       <c r="D301" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I301" s="11"/>
     </row>
     <row r="302" spans="4:9" ht="31">
       <c r="D302" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I302" s="13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="303" spans="4:9">
       <c r="D303" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I303" s="9"/>
     </row>
     <row r="304" spans="4:9">
       <c r="D304" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I304" s="12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="305" spans="4:9">
       <c r="D305" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I305" s="11"/>
     </row>
     <row r="306" spans="4:9" ht="31">
       <c r="D306" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I306" s="13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="307" spans="4:9">
       <c r="D307" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I307" s="13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="308" spans="4:9" ht="31">
       <c r="D308" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I308" s="9"/>
     </row>
     <row r="309" spans="4:9">
       <c r="D309" s="9"/>
       <c r="I309" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="310" spans="4:9">
       <c r="D310" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I310" s="11"/>
     </row>
     <row r="311" spans="4:9" ht="31">
       <c r="D311" s="11"/>
       <c r="I311" s="13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="312" spans="4:9">
       <c r="D312" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I312" s="13" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="313" spans="4:9" ht="31">
       <c r="D313" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I313" s="13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="314" spans="4:9">
       <c r="D314" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I314" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="315" spans="4:9" ht="31">
       <c r="D315" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I315" s="13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="316" spans="4:9" ht="31">
       <c r="D316" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I316" s="9"/>
     </row>
     <row r="317" spans="4:9">
       <c r="D317" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I317" s="12" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="318" spans="4:9">
       <c r="D318" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I318" s="11"/>
     </row>
     <row r="319" spans="4:9">
       <c r="D319" s="9"/>
       <c r="I319" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="320" spans="4:9">
       <c r="D320" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I320" s="13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="321" spans="4:9">
       <c r="D321" s="11"/>
       <c r="I321" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="322" spans="4:9" ht="31">
       <c r="D322" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I322" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="323" spans="4:9">
       <c r="D323" s="13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="324" spans="4:9" ht="31">
       <c r="D324" s="13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I324" s="13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="325" spans="4:9" ht="31">
       <c r="D325" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="326" spans="4:9">
       <c r="D326" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I326" s="9"/>
     </row>
     <row r="327" spans="4:9">
       <c r="D327" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I327" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="328" spans="4:9" ht="31">
       <c r="D328" s="19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I328" s="11"/>
     </row>
     <row r="329" spans="4:9" ht="31">
       <c r="D329" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="330" spans="4:9" ht="46.5">
       <c r="D330" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I330" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="331" spans="4:9" ht="31">
       <c r="D331" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I331" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="332" spans="4:9" ht="31">
       <c r="D332" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I332" s="9"/>
     </row>
     <row r="333" spans="4:9" ht="31">
       <c r="D333" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I333" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="334" spans="4:9">
       <c r="D334" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I334" s="11"/>
     </row>
     <row r="335" spans="4:9" ht="31">
       <c r="D335" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I335" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="336" spans="4:9" ht="31">
       <c r="D336" s="9"/>
       <c r="I336" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="337" spans="4:9">
       <c r="D337" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I337" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="338" spans="4:9">
@@ -11454,94 +12173,94 @@
     </row>
     <row r="339" spans="4:9" ht="31">
       <c r="D339" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I339" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="340" spans="4:9">
       <c r="D340" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I340" s="9"/>
     </row>
     <row r="341" spans="4:9" ht="31">
       <c r="D341" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I341" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="342" spans="4:9">
       <c r="D342" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I342" s="9"/>
     </row>
     <row r="343" spans="4:9" ht="46.5">
       <c r="D343" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I343" s="12" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="344" spans="4:9" ht="31">
       <c r="D344" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I344" s="9"/>
     </row>
     <row r="345" spans="4:9" ht="31">
       <c r="D345" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I345" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="346" spans="4:9">
       <c r="D346" s="13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I346" s="9"/>
     </row>
     <row r="347" spans="4:9" ht="31">
       <c r="D347" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I347" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="348" spans="4:9">
       <c r="D348" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I348" s="9"/>
     </row>
     <row r="349" spans="4:9">
       <c r="D349" s="19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I349" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="350" spans="4:9">
       <c r="D350" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I350" s="9"/>
     </row>
     <row r="351" spans="4:9" ht="31">
       <c r="D351" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I351" s="12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="352" spans="4:9">
@@ -11550,10 +12269,10 @@
     </row>
     <row r="353" spans="4:9">
       <c r="D353" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I353" s="12" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="354" spans="4:9">
@@ -11562,122 +12281,122 @@
     </row>
     <row r="355" spans="4:9">
       <c r="D355" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I355" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="356" spans="4:9" ht="31">
       <c r="D356" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I356" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="357" spans="4:9" ht="31">
       <c r="D357" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I357" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="358" spans="4:9" ht="31">
       <c r="D358" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I358" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="359" spans="4:9" ht="31">
       <c r="D359" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I359" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="360" spans="4:9" ht="31">
       <c r="D360" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I360" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="361" spans="4:9">
       <c r="D361" s="9"/>
       <c r="I361" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="362" spans="4:9" ht="31">
       <c r="D362" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I362" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="363" spans="4:9">
       <c r="D363" s="9"/>
       <c r="I363" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="364" spans="4:9" ht="62">
       <c r="D364" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I364" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="365" spans="4:9">
       <c r="D365" s="11"/>
       <c r="I365" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="366" spans="4:9">
       <c r="D366" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I366" s="9"/>
     </row>
     <row r="367" spans="4:9">
       <c r="D367" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I367" s="12" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="368" spans="4:9" ht="31">
       <c r="D368" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I368" s="11"/>
     </row>
     <row r="369" spans="4:9">
       <c r="D369" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I369" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="370" spans="4:9" ht="46.5">
       <c r="I370" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="371" spans="4:9" ht="31">
       <c r="I371" s="13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="372" spans="4:9">
@@ -11685,7 +12404,7 @@
     </row>
     <row r="373" spans="4:9">
       <c r="I373" s="12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="374" spans="4:9">
@@ -11693,32 +12412,32 @@
     </row>
     <row r="375" spans="4:9">
       <c r="I375" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="376" spans="4:9" ht="31">
       <c r="I376" s="13" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="377" spans="4:9">
       <c r="I377" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="378" spans="4:9">
       <c r="I378" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="379" spans="4:9">
       <c r="I379" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="380" spans="4:9" ht="31">
       <c r="I380" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="381" spans="4:9">
@@ -11726,7 +12445,7 @@
     </row>
     <row r="382" spans="4:9" ht="31">
       <c r="I382" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="383" spans="4:9">
@@ -11734,7 +12453,7 @@
     </row>
     <row r="384" spans="4:9" ht="31">
       <c r="I384" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="385" spans="9:9">
@@ -11742,42 +12461,42 @@
     </row>
     <row r="386" spans="9:9">
       <c r="I386" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="387" spans="9:9" ht="31">
       <c r="I387" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="388" spans="9:9">
       <c r="I388" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="389" spans="9:9" ht="31">
       <c r="I389" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="390" spans="9:9">
       <c r="I390" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="391" spans="9:9">
       <c r="I391" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="392" spans="9:9" ht="31">
       <c r="I392" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="393" spans="9:9">
       <c r="I393" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="394" spans="9:9">
@@ -11785,7 +12504,7 @@
     </row>
     <row r="395" spans="9:9">
       <c r="I395" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="396" spans="9:9">
@@ -11793,17 +12512,17 @@
     </row>
     <row r="397" spans="9:9">
       <c r="I397" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="398" spans="9:9">
       <c r="I398" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="399" spans="9:9" ht="31">
       <c r="I399" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="400" spans="9:9">
@@ -11811,7 +12530,7 @@
     </row>
     <row r="401" spans="9:9">
       <c r="I401" s="12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="402" spans="9:9">
@@ -11819,12 +12538,12 @@
     </row>
     <row r="403" spans="9:9">
       <c r="I403" s="13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="404" spans="9:9" ht="31">
       <c r="I404" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="405" spans="9:9">
@@ -11832,7 +12551,7 @@
     </row>
     <row r="406" spans="9:9">
       <c r="I406" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="407" spans="9:9">
@@ -11840,57 +12559,57 @@
     </row>
     <row r="408" spans="9:9">
       <c r="I408" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="409" spans="9:9">
       <c r="I409" s="13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="410" spans="9:9">
       <c r="I410" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="411" spans="9:9">
       <c r="I411" s="13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="412" spans="9:9">
       <c r="I412" s="13" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="413" spans="9:9">
       <c r="I413" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="414" spans="9:9">
       <c r="I414" s="13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="415" spans="9:9" ht="31">
       <c r="I415" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="416" spans="9:9">
       <c r="I416" s="13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="417" spans="9:9">
       <c r="I417" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="418" spans="9:9">
       <c r="I418" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="419" spans="9:9">
@@ -11898,7 +12617,7 @@
     </row>
     <row r="420" spans="9:9">
       <c r="I420" s="12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="421" spans="9:9">
@@ -11906,47 +12625,47 @@
     </row>
     <row r="422" spans="9:9">
       <c r="I422" s="13" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="423" spans="9:9">
       <c r="I423" s="13" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="424" spans="9:9" ht="31">
       <c r="I424" s="13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="425" spans="9:9" ht="31">
       <c r="I425" s="13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="426" spans="9:9">
       <c r="I426" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="427" spans="9:9">
       <c r="I427" s="13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="428" spans="9:9" ht="31">
       <c r="I428" s="13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="429" spans="9:9">
       <c r="I429" s="13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="430" spans="9:9">
       <c r="I430" s="13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="431" spans="9:9">
@@ -11954,7 +12673,7 @@
     </row>
     <row r="432" spans="9:9">
       <c r="I432" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="433" spans="9:9">
@@ -11962,12 +12681,12 @@
     </row>
     <row r="434" spans="9:9">
       <c r="I434" s="13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="435" spans="9:9">
       <c r="I435" s="13" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="436" spans="9:9">
@@ -11975,7 +12694,7 @@
     </row>
     <row r="437" spans="9:9">
       <c r="I437" s="12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="438" spans="9:9">
@@ -11983,47 +12702,47 @@
     </row>
     <row r="439" spans="9:9">
       <c r="I439" s="13" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="440" spans="9:9" ht="31">
       <c r="I440" s="13" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="441" spans="9:9">
       <c r="I441" s="13" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="442" spans="9:9">
       <c r="I442" s="13" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="443" spans="9:9" ht="31">
       <c r="I443" s="13" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="444" spans="9:9">
       <c r="I444" s="13" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="445" spans="9:9">
       <c r="I445" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="446" spans="9:9">
       <c r="I446" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="447" spans="9:9">
       <c r="I447" s="13" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="448" spans="9:9">
@@ -12031,7 +12750,7 @@
     </row>
     <row r="449" spans="9:9">
       <c r="I449" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="450" spans="9:9">
@@ -12039,62 +12758,62 @@
     </row>
     <row r="451" spans="9:9">
       <c r="I451" s="13" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="452" spans="9:9">
       <c r="I452" s="13" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="453" spans="9:9" ht="31">
       <c r="I453" s="13" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="454" spans="9:9">
       <c r="I454" s="13" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="455" spans="9:9">
       <c r="I455" s="13" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="456" spans="9:9">
       <c r="I456" s="13" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="457" spans="9:9">
       <c r="I457" s="13" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="458" spans="9:9">
       <c r="I458" s="13" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="459" spans="9:9">
       <c r="I459" s="13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="460" spans="9:9">
       <c r="I460" s="13" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="461" spans="9:9">
       <c r="I461" s="13" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="462" spans="9:9">
       <c r="I462" s="13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="463" spans="9:9">
@@ -12102,7 +12821,7 @@
     </row>
     <row r="464" spans="9:9" ht="46.5">
       <c r="I464" s="12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="465" spans="9:9">
@@ -12110,27 +12829,27 @@
     </row>
     <row r="466" spans="9:9" ht="31">
       <c r="I466" s="13" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="467" spans="9:9">
       <c r="I467" s="13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="468" spans="9:9">
       <c r="I468" s="13" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="469" spans="9:9">
       <c r="I469" s="13" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="470" spans="9:9" ht="31">
       <c r="I470" s="13" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="471" spans="9:9">
@@ -12138,7 +12857,7 @@
     </row>
     <row r="472" spans="9:9">
       <c r="I472" s="12" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="473" spans="9:9">
@@ -12146,22 +12865,22 @@
     </row>
     <row r="474" spans="9:9" ht="31">
       <c r="I474" s="13" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="475" spans="9:9">
       <c r="I475" s="13" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="476" spans="9:9">
       <c r="I476" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="477" spans="9:9" ht="31">
       <c r="I477" s="13" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="478" spans="9:9">
@@ -12169,7 +12888,7 @@
     </row>
     <row r="479" spans="9:9">
       <c r="I479" s="12" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="480" spans="9:9">
@@ -12177,22 +12896,22 @@
     </row>
     <row r="481" spans="9:9" ht="31">
       <c r="I481" s="13" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="482" spans="9:9" ht="31">
       <c r="I482" s="13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="483" spans="9:9" ht="31">
       <c r="I483" s="13" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="484" spans="9:9" ht="31">
       <c r="I484" s="13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="485" spans="9:9">
@@ -12200,7 +12919,7 @@
     </row>
     <row r="486" spans="9:9" ht="31">
       <c r="I486" s="12" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="487" spans="9:9">
@@ -12208,32 +12927,32 @@
     </row>
     <row r="488" spans="9:9">
       <c r="I488" s="13" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="489" spans="9:9" ht="31">
       <c r="I489" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="490" spans="9:9">
       <c r="I490" s="13" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="491" spans="9:9" ht="31">
       <c r="I491" s="13" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="492" spans="9:9" ht="31">
       <c r="I492" s="13" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="493" spans="9:9" ht="46.5">
       <c r="I493" s="13" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="494" spans="9:9">
@@ -12241,7 +12960,7 @@
     </row>
     <row r="495" spans="9:9" ht="31">
       <c r="I495" s="12" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="496" spans="9:9">
@@ -12249,17 +12968,17 @@
     </row>
     <row r="497" spans="9:9">
       <c r="I497" s="13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="498" spans="9:9">
       <c r="I498" s="13" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="499" spans="9:9">
       <c r="I499" s="13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="500" spans="9:9">
@@ -12267,7 +12986,7 @@
     </row>
     <row r="501" spans="9:9">
       <c r="I501" s="28" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="502" spans="9:9">
@@ -12283,17 +13002,17 @@
     </row>
     <row r="505" spans="9:9">
       <c r="I505" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="506" spans="9:9" ht="31">
       <c r="I506" s="13" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="507" spans="9:9" ht="31">
       <c r="I507" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="508" spans="9:9">
@@ -12301,7 +13020,7 @@
     </row>
     <row r="509" spans="9:9">
       <c r="I509" s="12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="510" spans="9:9">
@@ -12309,27 +13028,27 @@
     </row>
     <row r="511" spans="9:9" ht="31">
       <c r="I511" s="13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="512" spans="9:9">
       <c r="I512" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="513" spans="9:9" ht="31">
       <c r="I513" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="514" spans="9:9" ht="31">
       <c r="I514" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="515" spans="9:9">
       <c r="I515" s="13" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="516" spans="9:9">
@@ -12337,7 +13056,7 @@
     </row>
     <row r="517" spans="9:9">
       <c r="I517" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="518" spans="9:9">
@@ -12345,17 +13064,17 @@
     </row>
     <row r="519" spans="9:9">
       <c r="I519" s="13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="520" spans="9:9">
       <c r="I520" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="521" spans="9:9">
       <c r="I521" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="522" spans="9:9">
@@ -12363,7 +13082,7 @@
     </row>
     <row r="523" spans="9:9">
       <c r="I523" s="12" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="524" spans="9:9">
@@ -12371,27 +13090,27 @@
     </row>
     <row r="525" spans="9:9">
       <c r="I525" s="13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="526" spans="9:9">
       <c r="I526" s="13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="527" spans="9:9">
       <c r="I527" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="528" spans="9:9">
       <c r="I528" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="529" spans="9:9">
       <c r="I529" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="530" spans="9:9">
@@ -12399,7 +13118,7 @@
     </row>
     <row r="531" spans="9:9">
       <c r="I531" s="12" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="532" spans="9:9">
@@ -12407,32 +13126,32 @@
     </row>
     <row r="533" spans="9:9">
       <c r="I533" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="534" spans="9:9">
       <c r="I534" s="13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="535" spans="9:9">
       <c r="I535" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="536" spans="9:9">
       <c r="I536" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="537" spans="9:9">
       <c r="I537" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="538" spans="9:9">
       <c r="I538" s="13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="539" spans="9:9">
@@ -12440,7 +13159,7 @@
     </row>
     <row r="540" spans="9:9">
       <c r="I540" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="541" spans="9:9">
@@ -12448,22 +13167,22 @@
     </row>
     <row r="542" spans="9:9">
       <c r="I542" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="543" spans="9:9">
       <c r="I543" s="13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="544" spans="9:9" ht="31">
       <c r="I544" s="13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="545" spans="9:9">
       <c r="I545" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="546" spans="9:9">
@@ -12471,7 +13190,7 @@
     </row>
     <row r="547" spans="9:9">
       <c r="I547" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="548" spans="9:9">
@@ -12479,57 +13198,57 @@
     </row>
     <row r="549" spans="9:9">
       <c r="I549" s="13" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="550" spans="9:9">
       <c r="I550" s="13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="551" spans="9:9">
       <c r="I551" s="13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="552" spans="9:9">
       <c r="I552" s="13" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="553" spans="9:9">
       <c r="I553" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="554" spans="9:9">
       <c r="I554" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="555" spans="9:9">
       <c r="I555" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="556" spans="9:9">
       <c r="I556" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="557" spans="9:9">
       <c r="I557" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="558" spans="9:9" ht="46.5">
       <c r="I558" s="13" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="559" spans="9:9">
       <c r="I559" s="13" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="560" spans="9:9">
@@ -12537,7 +13256,7 @@
     </row>
     <row r="561" spans="9:9">
       <c r="I561" s="12" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="562" spans="9:9">
@@ -12545,17 +13264,17 @@
     </row>
     <row r="563" spans="9:9">
       <c r="I563" s="13" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="564" spans="9:9">
       <c r="I564" s="13" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="565" spans="9:9">
       <c r="I565" s="13" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="566" spans="9:9">
@@ -12563,7 +13282,7 @@
     </row>
     <row r="567" spans="9:9">
       <c r="I567" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="568" spans="9:9">
@@ -12571,32 +13290,32 @@
     </row>
     <row r="569" spans="9:9">
       <c r="I569" s="13" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="570" spans="9:9">
       <c r="I570" s="13" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="571" spans="9:9" ht="31">
       <c r="I571" s="13" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="572" spans="9:9" ht="31">
       <c r="I572" s="13" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="573" spans="9:9" ht="31">
       <c r="I573" s="13" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="574" spans="9:9" ht="31">
       <c r="I574" s="13" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="575" spans="9:9">
@@ -12604,7 +13323,7 @@
     </row>
     <row r="576" spans="9:9">
       <c r="I576" s="12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="577" spans="9:9">
@@ -12612,52 +13331,52 @@
     </row>
     <row r="578" spans="9:9">
       <c r="I578" s="13" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="579" spans="9:9" ht="31">
       <c r="I579" s="13" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="580" spans="9:9">
       <c r="I580" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="581" spans="9:9">
       <c r="I581" s="13" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="582" spans="9:9">
       <c r="I582" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="583" spans="9:9">
       <c r="I583" s="13" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="584" spans="9:9" ht="31">
       <c r="I584" s="13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="585" spans="9:9">
       <c r="I585" s="13" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="586" spans="9:9" ht="31">
       <c r="I586" s="13" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="587" spans="9:9" ht="31">
       <c r="I587" s="13" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="588" spans="9:9">
@@ -12665,7 +13384,7 @@
     </row>
     <row r="589" spans="9:9">
       <c r="I589" s="12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="590" spans="9:9">
@@ -12673,42 +13392,42 @@
     </row>
     <row r="591" spans="9:9" ht="31">
       <c r="I591" s="13" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="592" spans="9:9">
       <c r="I592" s="13" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="593" spans="9:9">
       <c r="I593" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="594" spans="9:9">
       <c r="I594" s="13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="595" spans="9:9">
       <c r="I595" s="13" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="596" spans="9:9" ht="31">
       <c r="I596" s="13" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="597" spans="9:9" ht="31">
       <c r="I597" s="13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="598" spans="9:9">
       <c r="I598" s="13" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="599" spans="9:9">
@@ -12716,7 +13435,7 @@
     </row>
     <row r="600" spans="9:9">
       <c r="I600" s="12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="601" spans="9:9">
@@ -12724,72 +13443,72 @@
     </row>
     <row r="602" spans="9:9">
       <c r="I602" s="13" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="603" spans="9:9">
       <c r="I603" s="13" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="604" spans="9:9">
       <c r="I604" s="13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="605" spans="9:9">
       <c r="I605" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="606" spans="9:9" ht="46.5">
       <c r="I606" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="607" spans="9:9">
       <c r="I607" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="608" spans="9:9">
       <c r="I608" s="13" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="609" spans="9:9">
       <c r="I609" s="13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="610" spans="9:9">
       <c r="I610" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="611" spans="9:9">
       <c r="I611" s="13" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="612" spans="9:9" ht="31">
       <c r="I612" s="13" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="613" spans="9:9">
       <c r="I613" s="13" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="614" spans="9:9" ht="31">
       <c r="I614" s="13" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="615" spans="9:9">
       <c r="I615" s="13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="616" spans="9:9">
@@ -12797,7 +13516,7 @@
     </row>
     <row r="617" spans="9:9">
       <c r="I617" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="618" spans="9:9">
@@ -12805,22 +13524,22 @@
     </row>
     <row r="619" spans="9:9">
       <c r="I619" s="13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="620" spans="9:9">
       <c r="I620" s="13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="621" spans="9:9">
       <c r="I621" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="622" spans="9:9">
       <c r="I622" s="13" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="623" spans="9:9">
@@ -12828,7 +13547,7 @@
     </row>
     <row r="624" spans="9:9" ht="31">
       <c r="I624" s="12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="625" spans="9:9">
@@ -12836,7 +13555,7 @@
     </row>
     <row r="626" spans="9:9" ht="31">
       <c r="I626" s="13" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -12846,4 +13565,30 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="57.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="41" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>